--- a/biology/Botanique/A.B.Jacks/A.B.Jacks..xlsx
+++ b/biology/Botanique/A.B.Jacks/A.B.Jacks..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Bruce Jackson est un botaniste britannique, né le 14 février 1876 à Newbury, Berkshire et mort le 14 janvier 1947 à Kew.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est assistant aux Jardins botaniques royaux de Kew de 1907 à 1910 puis technicien-assistant à l’Imperial Institute de Londres de 1910 à 1932 puis bénévole, comme spécialiste des conifères de 1932 à 1947 au British Museum.
 Jackson assiste Henry John Elwes (1846-1922) et Augustine Henry (1857-1930) dans la préparation des Trees of Great Britain and Ireland (de 1906 à 1913). Il fait paraître des études sur les collections d’arbres de Syon House (1910), Yattenden Court (1911), Albury Park (1913) Westonbirg (1927), Borde Hill (1935).
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
 Avec William Dallimore A Handbook of Coniferae, 1923
